--- a/LinearCut/data/ID and Funtion v3.xlsx
+++ b/LinearCut/data/ID and Funtion v3.xlsx
@@ -988,7 +988,17 @@
     <cellStyle name="一般 2" xfId="2"/>
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1500,7 +1510,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="N1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1514,7 +1524,7 @@
   <dimension ref="A1:AL31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AG7" sqref="AG7"/>
+      <selection activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1860,7 +1870,7 @@
         <v>12</v>
       </c>
       <c r="AI5" s="5">
-        <f>SUM(AI6:AI10)</f>
+        <f>SUM(AI6:AI13)</f>
         <v>1</v>
       </c>
       <c r="AJ5" s="3" t="s">
@@ -3780,8 +3790,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI5">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>1</formula>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0.999</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
